--- a/Data/EC/NIT-8040053193.xlsx
+++ b/Data/EC/NIT-8040053193.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03B43D6D-8AC0-475F-BE07-16721D3E2E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9FAA4A6-2C20-4A54-BACE-E5007F57A71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{000A3192-3BF6-42C2-8C3B-99BE534334DA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0E0B78F7-80FF-4D5E-916C-FACCFCDD75B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,73 +71,76 @@
     <t>ROBER ALFONSO JURADO MEZA</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
     <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -551,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D83358B-DE3B-33A9-6821-B9B261BDC00F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C7F12A-F700-287A-3D68-3CD9B31A7726}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,8 +905,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6535F171-4FF2-4C3C-BCD3-DE97C919D447}">
-  <dimension ref="B2:J44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9CFAD6-ED9F-4152-94A6-B7BA3B9C167E}">
+  <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -927,7 +930,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -972,7 +975,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1004,12 +1007,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1483049</v>
+        <v>1549853</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1020,17 +1023,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1057,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1080,7 +1083,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>13361</v>
+        <v>66804</v>
       </c>
       <c r="G16" s="18">
         <v>1670112</v>
@@ -1573,42 +1576,54 @@
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="22" t="s">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="24">
-        <v>66804</v>
-      </c>
-      <c r="G38" s="24">
-        <v>1670112</v>
-      </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="26"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="32"/>
-      <c r="H43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="F38" s="18">
+        <v>66804</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1670112</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="24">
+        <v>13361</v>
+      </c>
+      <c r="G39" s="24">
+        <v>1670112</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C44" s="32"/>
       <c r="H44" s="1" t="s">
@@ -1617,12 +1632,23 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="H45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H45:J45"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H43:J43"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
